--- a/Assets/UI/gamedata.xlsx
+++ b/Assets/UI/gamedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="5"/>
+    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="532">
   <si>
     <t>GDE_FIELD_NAMES</t>
   </si>
@@ -1666,6 +1666,14 @@
   </si>
   <si>
     <t>Priority to kill hiding nearby enemies, ingenious use of oil drums.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desert storm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seaport wharf</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2190,7 +2198,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" activeCellId="1" sqref="B4 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,7 +2242,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>530</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2248,7 +2256,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>531</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2269,7 +2277,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,7 +2365,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>516</v>
@@ -2380,7 +2388,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>517</v>
@@ -2403,7 +2411,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>518</v>
@@ -2426,7 +2434,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>519</v>
@@ -2449,7 +2457,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>520</v>
@@ -2472,7 +2480,7 @@
         <v>38</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>521</v>
@@ -2495,7 +2503,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>518</v>
@@ -2518,7 +2526,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>522</v>
@@ -2541,7 +2549,7 @@
         <v>47</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>523</v>
@@ -2564,7 +2572,7 @@
         <v>50</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>524</v>
@@ -2587,7 +2595,7 @@
         <v>53</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>525</v>
@@ -2610,7 +2618,7 @@
         <v>56</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>526</v>
@@ -2633,7 +2641,7 @@
         <v>59</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>527</v>
@@ -2656,7 +2664,7 @@
         <v>62</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>528</v>
@@ -2679,7 +2687,7 @@
         <v>65</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>529</v>
@@ -3954,7 +3962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
@@ -7138,7 +7146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -9641,8 +9649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9739,7 +9747,7 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -9774,7 +9782,7 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -9809,7 +9817,7 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -9844,7 +9852,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>6</v>

--- a/Assets/UI/gamedata.xlsx
+++ b/Assets/UI/gamedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="7"/>
+    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -273,30 +273,6 @@
     <t>lv1-8</t>
   </si>
   <si>
-    <t>lv1-9</t>
-  </si>
-  <si>
-    <t>lv1-10</t>
-  </si>
-  <si>
-    <t>lv1-11</t>
-  </si>
-  <si>
-    <t>lv1-12</t>
-  </si>
-  <si>
-    <t>lv1-13</t>
-  </si>
-  <si>
-    <t>lv1-14</t>
-  </si>
-  <si>
-    <t>lv1-15</t>
-  </si>
-  <si>
-    <t>lv1-16</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -1674,6 +1650,32 @@
   </si>
   <si>
     <t>Seaport wharf</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv2-1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv2-2</t>
+  </si>
+  <si>
+    <t>lv2-3</t>
+  </si>
+  <si>
+    <t>lv2-5</t>
+  </si>
+  <si>
+    <t>lv2-6</t>
+  </si>
+  <si>
+    <t>lv2-7</t>
+  </si>
+  <si>
+    <t>lv2-8</t>
+  </si>
+  <si>
+    <t>lv2-4</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2242,7 +2244,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2256,7 +2258,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2277,7 +2279,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F3" sqref="F3:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -2368,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -2391,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -2414,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -2437,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -2460,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
@@ -2483,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
@@ -2506,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -2529,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -2552,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -2575,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -2598,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
@@ -2644,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
@@ -2667,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D17" t="s">
         <v>63</v>
@@ -2690,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
@@ -2716,7 +2718,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2744,7 +2746,7 @@
         <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F1" t="s">
         <v>71</v>
@@ -2767,7 +2769,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -2781,7 +2783,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -2804,7 +2806,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -2827,7 +2829,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -2850,7 +2852,7 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -2873,7 +2875,7 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -2896,7 +2898,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -2919,7 +2921,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -2942,7 +2944,7 @@
         <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -2965,7 +2967,7 @@
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -2980,7 +2982,7 @@
         <v>164</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2988,7 +2990,7 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C12">
         <v>100</v>
@@ -3003,7 +3005,7 @@
         <v>172</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3011,7 +3013,7 @@
         <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C13">
         <v>100</v>
@@ -3026,7 +3028,7 @@
         <v>180</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3034,7 +3036,7 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -3049,7 +3051,7 @@
         <v>188</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3057,7 +3059,7 @@
         <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C15">
         <v>100</v>
@@ -3072,7 +3074,7 @@
         <v>196</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3080,7 +3082,7 @@
         <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C16">
         <v>100</v>
@@ -3095,7 +3097,7 @@
         <v>204</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3103,7 +3105,7 @@
         <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C17">
         <v>100</v>
@@ -3118,7 +3120,7 @@
         <v>212</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3126,7 +3128,7 @@
         <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C18">
         <v>100</v>
@@ -3141,7 +3143,7 @@
         <v>288</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -3155,7 +3157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
@@ -3171,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3185,584 +3187,584 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3770,7 +3772,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3778,7 +3780,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3786,7 +3788,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3794,7 +3796,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3802,7 +3804,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3810,7 +3812,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -3818,7 +3820,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3826,7 +3828,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3834,7 +3836,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -3842,7 +3844,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3850,7 +3852,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3858,7 +3860,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3866,7 +3868,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3874,7 +3876,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -3882,7 +3884,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -3890,7 +3892,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -3898,7 +3900,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3906,7 +3908,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -3914,7 +3916,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3922,7 +3924,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -3930,7 +3932,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3938,7 +3940,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3946,7 +3948,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3962,8 +3964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="H165" sqref="H165"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3981,19 +3983,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4018,13 +4020,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -4038,13 +4040,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4058,13 +4060,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4078,13 +4080,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -4098,13 +4100,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4118,13 +4120,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4138,13 +4140,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -4158,13 +4160,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4178,13 +4180,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4198,13 +4200,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4218,13 +4220,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -4238,13 +4240,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4258,13 +4260,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -4278,13 +4280,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -4298,13 +4300,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -4318,13 +4320,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -4338,13 +4340,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -4358,13 +4360,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -4378,13 +4380,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -4398,13 +4400,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -4418,13 +4420,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4438,13 +4440,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -4458,13 +4460,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -4478,13 +4480,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4498,13 +4500,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -4518,13 +4520,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -4538,13 +4540,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -4558,13 +4560,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -4578,13 +4580,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -4598,13 +4600,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4618,13 +4620,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -4638,13 +4640,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -4658,13 +4660,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -4678,13 +4680,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -4698,13 +4700,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -4718,13 +4720,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -4738,13 +4740,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -4758,13 +4760,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -4778,13 +4780,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -4798,13 +4800,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -4818,13 +4820,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -4838,13 +4840,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -4858,13 +4860,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -4878,13 +4880,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -4898,13 +4900,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -4918,13 +4920,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -4938,13 +4940,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -4958,13 +4960,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -4978,13 +4980,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -4998,13 +5000,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -5018,13 +5020,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -5038,13 +5040,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -5058,13 +5060,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -5078,13 +5080,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -5098,13 +5100,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -5118,13 +5120,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -5138,13 +5140,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -5158,13 +5160,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D60">
         <v>4</v>
@@ -5178,13 +5180,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -5198,13 +5200,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -5218,13 +5220,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -5238,13 +5240,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -5258,13 +5260,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -5278,13 +5280,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -5298,13 +5300,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -5318,13 +5320,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -5338,13 +5340,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -5358,13 +5360,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -5378,13 +5380,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -5398,13 +5400,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -5418,13 +5420,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -5438,13 +5440,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -5458,13 +5460,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -5478,13 +5480,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -5498,13 +5500,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -5518,13 +5520,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D78">
         <v>5</v>
@@ -5538,13 +5540,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -5558,13 +5560,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -5578,13 +5580,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -5598,13 +5600,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -5618,13 +5620,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -5638,13 +5640,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D92">
         <v>3</v>
@@ -5658,13 +5660,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D93">
         <v>3</v>
@@ -5678,13 +5680,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -5698,13 +5700,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -5718,13 +5720,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -5738,13 +5740,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -5758,13 +5760,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -5778,13 +5780,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -5798,13 +5800,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -5818,13 +5820,13 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -5838,13 +5840,13 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D102">
         <v>3</v>
@@ -5858,13 +5860,13 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -5878,13 +5880,13 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D104">
         <v>4</v>
@@ -5898,13 +5900,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -5918,13 +5920,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -5938,13 +5940,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D107">
         <v>3</v>
@@ -5958,13 +5960,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -5978,13 +5980,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -5998,13 +6000,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -6018,13 +6020,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D111">
         <v>4</v>
@@ -6038,13 +6040,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -6058,13 +6060,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D113">
         <v>3</v>
@@ -6078,13 +6080,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D114">
         <v>3</v>
@@ -6098,13 +6100,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D115">
         <v>3</v>
@@ -6118,13 +6120,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D116">
         <v>5</v>
@@ -6138,13 +6140,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -6158,13 +6160,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -6178,13 +6180,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D119">
         <v>4</v>
@@ -6198,13 +6200,13 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D120">
         <v>3</v>
@@ -6218,13 +6220,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -6238,13 +6240,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D122">
         <v>3</v>
@@ -6258,13 +6260,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D123">
         <v>3</v>
@@ -6278,13 +6280,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D124">
         <v>4</v>
@@ -6298,13 +6300,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D125">
         <v>4</v>
@@ -6318,13 +6320,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D126">
         <v>3</v>
@@ -6338,13 +6340,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -6358,13 +6360,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D128">
         <v>5</v>
@@ -6378,13 +6380,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -6398,13 +6400,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D130">
         <v>3</v>
@@ -6418,13 +6420,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D131">
         <v>3</v>
@@ -6438,13 +6440,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D132">
         <v>4</v>
@@ -6458,13 +6460,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D133">
         <v>4</v>
@@ -6478,13 +6480,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D134">
         <v>8</v>
@@ -6498,13 +6500,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
       <c r="C135" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -6518,13 +6520,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -6538,13 +6540,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="C137" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D137">
         <v>6</v>
@@ -6558,13 +6560,13 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -6578,13 +6580,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="C139" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -6598,13 +6600,13 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="C140" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D140">
         <v>7</v>
@@ -6618,13 +6620,13 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="C141" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D141">
         <v>3</v>
@@ -6638,13 +6640,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D142">
         <v>2</v>
@@ -6658,13 +6660,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -6678,13 +6680,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D144">
         <v>5</v>
@@ -6698,13 +6700,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -6718,13 +6720,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D146">
         <v>2</v>
@@ -6738,13 +6740,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D147">
         <v>6</v>
@@ -6758,13 +6760,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D148">
         <v>2</v>
@@ -6778,13 +6780,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D149">
         <v>3</v>
@@ -6798,13 +6800,13 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D150">
         <v>7</v>
@@ -6818,13 +6820,13 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D151">
         <v>2</v>
@@ -6838,13 +6840,13 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="C152" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D152">
         <v>10</v>
@@ -6858,13 +6860,13 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="C153" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -6878,13 +6880,13 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="C154" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -6898,13 +6900,13 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -6918,13 +6920,13 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D156">
         <v>10</v>
@@ -6938,13 +6940,13 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="C157" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -6958,13 +6960,13 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="C158" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -6978,13 +6980,13 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -6998,13 +7000,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="C160" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D160">
         <v>10</v>
@@ -7018,13 +7020,13 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
       <c r="C161" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D161">
         <v>5</v>
@@ -7038,13 +7040,13 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="C162" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D162">
         <v>5</v>
@@ -7058,13 +7060,13 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="C163" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D163">
         <v>5</v>
@@ -7078,13 +7080,13 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="C164" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D164">
         <v>6</v>
@@ -7098,13 +7100,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="C165" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D165">
         <v>6</v>
@@ -7118,13 +7120,13 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D166">
         <v>6</v>
@@ -7146,8 +7148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7164,31 +7166,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7225,7 +7227,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7252,12 +7254,12 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -7284,12 +7286,12 @@
         <v>22.4</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7316,12 +7318,12 @@
         <v>22.7</v>
       </c>
       <c r="J5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7348,12 +7350,12 @@
         <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7380,12 +7382,12 @@
         <v>23.3</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7412,12 +7414,12 @@
         <v>23.6</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7444,12 +7446,12 @@
         <v>23.900000000000002</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7476,12 +7478,12 @@
         <v>24.200000000000003</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7508,12 +7510,12 @@
         <v>24.500000000000004</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -7540,12 +7542,12 @@
         <v>24.800000000000004</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -7572,12 +7574,12 @@
         <v>25.100000000000005</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -7604,12 +7606,12 @@
         <v>25.400000000000006</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7636,12 +7638,12 @@
         <v>25.700000000000006</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7668,12 +7670,12 @@
         <v>26.000000000000007</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7700,12 +7702,12 @@
         <v>26.300000000000008</v>
       </c>
       <c r="J17" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7732,12 +7734,12 @@
         <v>26.600000000000009</v>
       </c>
       <c r="J18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7764,12 +7766,12 @@
         <v>26.900000000000009</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7796,12 +7798,12 @@
         <v>27.20000000000001</v>
       </c>
       <c r="J20" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7828,12 +7830,12 @@
         <v>27.500000000000011</v>
       </c>
       <c r="J21" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7860,12 +7862,12 @@
         <v>27.800000000000011</v>
       </c>
       <c r="J22" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -7892,12 +7894,12 @@
         <v>28.100000000000012</v>
       </c>
       <c r="J23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -7924,12 +7926,12 @@
         <v>28.400000000000013</v>
       </c>
       <c r="J24" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -7956,12 +7958,12 @@
         <v>28.700000000000014</v>
       </c>
       <c r="J25" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -7988,7 +7990,7 @@
         <v>29.000000000000014</v>
       </c>
       <c r="J26" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -8005,7 +8007,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -8032,12 +8034,12 @@
         <v>35</v>
       </c>
       <c r="J30" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -8064,12 +8066,12 @@
         <v>36</v>
       </c>
       <c r="J31" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -8096,12 +8098,12 @@
         <v>37</v>
       </c>
       <c r="J32" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -8128,12 +8130,12 @@
         <v>38</v>
       </c>
       <c r="J33" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -8160,12 +8162,12 @@
         <v>39</v>
       </c>
       <c r="J34" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -8192,12 +8194,12 @@
         <v>40</v>
       </c>
       <c r="J35" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -8224,12 +8226,12 @@
         <v>41</v>
       </c>
       <c r="J36" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -8256,12 +8258,12 @@
         <v>42</v>
       </c>
       <c r="J37" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -8288,12 +8290,12 @@
         <v>43</v>
       </c>
       <c r="J38" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -8320,12 +8322,12 @@
         <v>44</v>
       </c>
       <c r="J39" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -8352,12 +8354,12 @@
         <v>45</v>
       </c>
       <c r="J40" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -8384,12 +8386,12 @@
         <v>46</v>
       </c>
       <c r="J41" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -8416,12 +8418,12 @@
         <v>47</v>
       </c>
       <c r="J42" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -8448,12 +8450,12 @@
         <v>48</v>
       </c>
       <c r="J43" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -8480,12 +8482,12 @@
         <v>49</v>
       </c>
       <c r="J44" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -8512,12 +8514,12 @@
         <v>50</v>
       </c>
       <c r="J45" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -8544,12 +8546,12 @@
         <v>51</v>
       </c>
       <c r="J46" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -8576,12 +8578,12 @@
         <v>52</v>
       </c>
       <c r="J47" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -8608,12 +8610,12 @@
         <v>53</v>
       </c>
       <c r="J48" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -8640,12 +8642,12 @@
         <v>54</v>
       </c>
       <c r="J49" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -8672,12 +8674,12 @@
         <v>55</v>
       </c>
       <c r="J50" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -8704,12 +8706,12 @@
         <v>56</v>
       </c>
       <c r="J51" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -8736,12 +8738,12 @@
         <v>57</v>
       </c>
       <c r="J52" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8768,7 +8770,7 @@
         <v>58</v>
       </c>
       <c r="J53" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -8791,7 +8793,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -8818,12 +8820,12 @@
         <v>40</v>
       </c>
       <c r="J60" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -8850,12 +8852,12 @@
         <v>41</v>
       </c>
       <c r="J61" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -8882,12 +8884,12 @@
         <v>42</v>
       </c>
       <c r="J62" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -8914,12 +8916,12 @@
         <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -8946,12 +8948,12 @@
         <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -8978,12 +8980,12 @@
         <v>45</v>
       </c>
       <c r="J65" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -9010,12 +9012,12 @@
         <v>46</v>
       </c>
       <c r="J66" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -9042,12 +9044,12 @@
         <v>47</v>
       </c>
       <c r="J67" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -9074,12 +9076,12 @@
         <v>48</v>
       </c>
       <c r="J68" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -9106,12 +9108,12 @@
         <v>49</v>
       </c>
       <c r="J69" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -9123,7 +9125,7 @@
         <v>180</v>
       </c>
       <c r="E70" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" s="8">
         <v>70</v>
@@ -9138,12 +9140,12 @@
         <v>50</v>
       </c>
       <c r="J70" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -9155,7 +9157,7 @@
         <v>190</v>
       </c>
       <c r="E71" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" s="8">
         <v>72</v>
@@ -9170,12 +9172,12 @@
         <v>51</v>
       </c>
       <c r="J71" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -9187,7 +9189,7 @@
         <v>200</v>
       </c>
       <c r="E72" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" s="8">
         <v>74</v>
@@ -9202,12 +9204,12 @@
         <v>52</v>
       </c>
       <c r="J72" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -9219,7 +9221,7 @@
         <v>210</v>
       </c>
       <c r="E73" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" s="8">
         <v>76</v>
@@ -9234,12 +9236,12 @@
         <v>53</v>
       </c>
       <c r="J73" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -9251,7 +9253,7 @@
         <v>220</v>
       </c>
       <c r="E74" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F74" s="8">
         <v>78</v>
@@ -9266,12 +9268,12 @@
         <v>54</v>
       </c>
       <c r="J74" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -9283,7 +9285,7 @@
         <v>230</v>
       </c>
       <c r="E75" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F75" s="8">
         <v>80</v>
@@ -9298,12 +9300,12 @@
         <v>55</v>
       </c>
       <c r="J75" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -9315,7 +9317,7 @@
         <v>240</v>
       </c>
       <c r="E76" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F76" s="8">
         <v>82</v>
@@ -9330,12 +9332,12 @@
         <v>56</v>
       </c>
       <c r="J76" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -9347,7 +9349,7 @@
         <v>250</v>
       </c>
       <c r="E77" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F77" s="8">
         <v>84</v>
@@ -9362,12 +9364,12 @@
         <v>57</v>
       </c>
       <c r="J77" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -9379,7 +9381,7 @@
         <v>260</v>
       </c>
       <c r="E78" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F78" s="8">
         <v>86</v>
@@ -9394,12 +9396,12 @@
         <v>58</v>
       </c>
       <c r="J78" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -9411,7 +9413,7 @@
         <v>270</v>
       </c>
       <c r="E79" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F79" s="8">
         <v>88</v>
@@ -9426,12 +9428,12 @@
         <v>59</v>
       </c>
       <c r="J79" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -9443,7 +9445,7 @@
         <v>280</v>
       </c>
       <c r="E80" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F80" s="8">
         <v>90</v>
@@ -9458,12 +9460,12 @@
         <v>60</v>
       </c>
       <c r="J80" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -9475,7 +9477,7 @@
         <v>290</v>
       </c>
       <c r="E81" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F81" s="8">
         <v>92</v>
@@ -9490,12 +9492,12 @@
         <v>61</v>
       </c>
       <c r="J81" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -9507,7 +9509,7 @@
         <v>300</v>
       </c>
       <c r="E82" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F82" s="8">
         <v>94</v>
@@ -9522,12 +9524,12 @@
         <v>62</v>
       </c>
       <c r="J82" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -9539,7 +9541,7 @@
         <v>310</v>
       </c>
       <c r="E83" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F83" s="8">
         <v>96</v>
@@ -9554,7 +9556,7 @@
         <v>63</v>
       </c>
       <c r="J83" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -9584,19 +9586,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9621,19 +9623,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -9649,7 +9651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -9668,34 +9670,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="K1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -9735,7 +9737,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -9753,10 +9755,10 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -9770,7 +9772,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -9788,10 +9790,10 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -9805,7 +9807,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -9823,10 +9825,10 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -9840,7 +9842,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -9858,10 +9860,10 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -9899,19 +9901,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9936,19 +9938,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -9956,19 +9958,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F4">
         <v>0</v>

--- a/Assets/UI/gamedata.xlsx
+++ b/Assets/UI/gamedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="5"/>
+    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -7148,7 +7148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
@@ -9651,8 +9651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9746,7 +9746,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -9781,7 +9781,7 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -9813,16 +9813,16 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
         <v>126</v>
@@ -9851,13 +9851,13 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
         <v>128</v>

--- a/Assets/UI/gamedata.xlsx
+++ b/Assets/UI/gamedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="7"/>
+    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -2718,7 +2718,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,7 +2789,7 @@
         <v>100</v>
       </c>
       <c r="D3">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E3" s="16">
         <v>30</v>
@@ -2812,7 +2812,7 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E4" s="16">
         <v>31</v>
@@ -2835,7 +2835,7 @@
         <v>100</v>
       </c>
       <c r="D5">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E5" s="16">
         <v>32</v>
@@ -2858,7 +2858,7 @@
         <v>100</v>
       </c>
       <c r="D6">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E6" s="16">
         <v>33</v>
@@ -2881,7 +2881,7 @@
         <v>100</v>
       </c>
       <c r="D7">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E7" s="16">
         <v>34</v>
@@ -2904,7 +2904,7 @@
         <v>100</v>
       </c>
       <c r="D8">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E8" s="16">
         <v>35</v>
@@ -2927,10 +2927,10 @@
         <v>100</v>
       </c>
       <c r="D9">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E9" s="16">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F9" s="18">
         <v>148</v>
@@ -2950,10 +2950,10 @@
         <v>100</v>
       </c>
       <c r="D10">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="E10" s="16">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F10" s="18">
         <v>188</v>
@@ -2973,7 +2973,7 @@
         <v>100</v>
       </c>
       <c r="D11">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E11" s="16">
         <v>38</v>
@@ -2996,7 +2996,7 @@
         <v>100</v>
       </c>
       <c r="D12">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E12" s="16">
         <v>39</v>
@@ -3019,7 +3019,7 @@
         <v>100</v>
       </c>
       <c r="D13">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E13" s="16">
         <v>40</v>
@@ -3042,7 +3042,7 @@
         <v>100</v>
       </c>
       <c r="D14">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E14" s="16">
         <v>41</v>
@@ -3065,7 +3065,7 @@
         <v>100</v>
       </c>
       <c r="D15">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E15" s="16">
         <v>42</v>
@@ -3088,7 +3088,7 @@
         <v>100</v>
       </c>
       <c r="D16">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E16" s="16">
         <v>43</v>
@@ -3111,7 +3111,7 @@
         <v>100</v>
       </c>
       <c r="D17">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E17" s="16">
         <v>44</v>
@@ -3134,10 +3134,10 @@
         <v>100</v>
       </c>
       <c r="D18">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="E18" s="16">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F18" s="18">
         <v>288</v>
@@ -3964,8 +3964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9651,8 +9651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9752,7 +9752,7 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>122</v>
@@ -9778,7 +9778,7 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>24</v>
@@ -9787,7 +9787,7 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
         <v>124</v>
@@ -9851,7 +9851,7 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>60</v>

--- a/Assets/UI/gamedata.xlsx
+++ b/Assets/UI/gamedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="4"/>
+    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -2279,7 +2279,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F17"/>
+      <selection activeCell="B4" sqref="B4:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2367,7 +2367,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>508</v>
@@ -2390,7 +2390,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>509</v>
@@ -2413,7 +2413,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>510</v>
@@ -2436,7 +2436,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>511</v>
@@ -2459,7 +2459,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>512</v>
@@ -2482,7 +2482,7 @@
         <v>38</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>513</v>
@@ -2505,7 +2505,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>510</v>
@@ -2528,7 +2528,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>514</v>
@@ -2551,7 +2551,7 @@
         <v>47</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>515</v>
@@ -2574,7 +2574,7 @@
         <v>50</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>516</v>
@@ -2597,7 +2597,7 @@
         <v>53</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>517</v>
@@ -2620,7 +2620,7 @@
         <v>56</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>518</v>
@@ -2643,7 +2643,7 @@
         <v>59</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>519</v>
@@ -2666,7 +2666,7 @@
         <v>62</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>520</v>
@@ -2689,7 +2689,7 @@
         <v>65</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>521</v>
@@ -2717,7 +2717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -3964,7 +3964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
@@ -7148,7 +7148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
@@ -9658,7 +9658,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
@@ -9749,7 +9750,7 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -9784,7 +9785,7 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>9</v>
@@ -9819,7 +9820,7 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -9854,7 +9855,7 @@
         <v>36</v>
       </c>
       <c r="E6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>10</v>

--- a/Assets/UI/gamedata.xlsx
+++ b/Assets/UI/gamedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="2"/>
+    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -2717,7 +2717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -3964,7 +3964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
@@ -7149,7 +7149,7 @@
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7236,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E3" s="9">
         <v>10</v>
@@ -7268,7 +7268,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E4" s="11">
         <v>10.4</v>
@@ -7299,8 +7299,8 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="6">
-        <v>76</v>
+      <c r="D5">
+        <v>60</v>
       </c>
       <c r="E5" s="11">
         <v>10.8</v>
@@ -7331,8 +7331,8 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="6">
-        <v>84</v>
+      <c r="D6" s="15">
+        <v>65</v>
       </c>
       <c r="E6" s="11">
         <v>11.200000000000001</v>
@@ -7363,8 +7363,8 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="6">
-        <v>92</v>
+      <c r="D7">
+        <v>70</v>
       </c>
       <c r="E7" s="11">
         <v>11.600000000000001</v>
@@ -7395,8 +7395,8 @@
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="6">
-        <v>100</v>
+      <c r="D8" s="15">
+        <v>75</v>
       </c>
       <c r="E8" s="11">
         <v>12.000000000000002</v>
@@ -7427,8 +7427,8 @@
       <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9" s="6">
-        <v>108</v>
+      <c r="D9">
+        <v>80</v>
       </c>
       <c r="E9" s="11">
         <v>12.400000000000002</v>
@@ -7459,8 +7459,8 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10" s="6">
-        <v>116</v>
+      <c r="D10" s="15">
+        <v>85</v>
       </c>
       <c r="E10" s="11">
         <v>12.800000000000002</v>
@@ -7491,8 +7491,8 @@
       <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11" s="6">
-        <v>124</v>
+      <c r="D11">
+        <v>90</v>
       </c>
       <c r="E11" s="11">
         <v>13.200000000000003</v>
@@ -7523,8 +7523,8 @@
       <c r="C12">
         <v>10</v>
       </c>
-      <c r="D12" s="6">
-        <v>132</v>
+      <c r="D12" s="15">
+        <v>95</v>
       </c>
       <c r="E12" s="11">
         <v>13.600000000000003</v>
@@ -7555,8 +7555,8 @@
       <c r="C13">
         <v>11</v>
       </c>
-      <c r="D13" s="6">
-        <v>140</v>
+      <c r="D13">
+        <v>100</v>
       </c>
       <c r="E13" s="11">
         <v>14.000000000000004</v>
@@ -7587,8 +7587,8 @@
       <c r="C14">
         <v>12</v>
       </c>
-      <c r="D14" s="6">
-        <v>148</v>
+      <c r="D14" s="15">
+        <v>105</v>
       </c>
       <c r="E14" s="11">
         <v>14.400000000000004</v>
@@ -7619,8 +7619,8 @@
       <c r="C15">
         <v>13</v>
       </c>
-      <c r="D15" s="6">
-        <v>156</v>
+      <c r="D15">
+        <v>110</v>
       </c>
       <c r="E15" s="11">
         <v>14.800000000000004</v>
@@ -7651,8 +7651,8 @@
       <c r="C16">
         <v>14</v>
       </c>
-      <c r="D16" s="6">
-        <v>164</v>
+      <c r="D16" s="15">
+        <v>115</v>
       </c>
       <c r="E16" s="11">
         <v>15.200000000000005</v>
@@ -7683,8 +7683,8 @@
       <c r="C17">
         <v>15</v>
       </c>
-      <c r="D17" s="6">
-        <v>172</v>
+      <c r="D17">
+        <v>120</v>
       </c>
       <c r="E17" s="11">
         <v>15.600000000000005</v>
@@ -7715,8 +7715,8 @@
       <c r="C18">
         <v>16</v>
       </c>
-      <c r="D18" s="6">
-        <v>180</v>
+      <c r="D18" s="15">
+        <v>125</v>
       </c>
       <c r="E18" s="11">
         <v>16.000000000000004</v>
@@ -7747,8 +7747,8 @@
       <c r="C19">
         <v>17</v>
       </c>
-      <c r="D19" s="6">
-        <v>188</v>
+      <c r="D19">
+        <v>130</v>
       </c>
       <c r="E19" s="11">
         <v>16.400000000000002</v>
@@ -7779,8 +7779,8 @@
       <c r="C20">
         <v>18</v>
       </c>
-      <c r="D20" s="6">
-        <v>196</v>
+      <c r="D20" s="15">
+        <v>135</v>
       </c>
       <c r="E20" s="11">
         <v>16.8</v>
@@ -7811,8 +7811,8 @@
       <c r="C21">
         <v>19</v>
       </c>
-      <c r="D21" s="6">
-        <v>204</v>
+      <c r="D21">
+        <v>140</v>
       </c>
       <c r="E21" s="11">
         <v>17.2</v>
@@ -7843,8 +7843,8 @@
       <c r="C22">
         <v>20</v>
       </c>
-      <c r="D22" s="6">
-        <v>212</v>
+      <c r="D22" s="15">
+        <v>145</v>
       </c>
       <c r="E22" s="11">
         <v>17.599999999999998</v>
@@ -7875,8 +7875,8 @@
       <c r="C23">
         <v>21</v>
       </c>
-      <c r="D23" s="6">
-        <v>220</v>
+      <c r="D23">
+        <v>150</v>
       </c>
       <c r="E23" s="11">
         <v>17.999999999999996</v>
@@ -7907,8 +7907,8 @@
       <c r="C24">
         <v>22</v>
       </c>
-      <c r="D24" s="6">
-        <v>228</v>
+      <c r="D24" s="15">
+        <v>155</v>
       </c>
       <c r="E24" s="11">
         <v>18.399999999999995</v>
@@ -7939,8 +7939,8 @@
       <c r="C25">
         <v>23</v>
       </c>
-      <c r="D25" s="6">
-        <v>236</v>
+      <c r="D25">
+        <v>160</v>
       </c>
       <c r="E25" s="11">
         <v>18.799999999999994</v>
@@ -7971,8 +7971,8 @@
       <c r="C26">
         <v>24</v>
       </c>
-      <c r="D26" s="6">
-        <v>244</v>
+      <c r="D26" s="15">
+        <v>165</v>
       </c>
       <c r="E26" s="11">
         <v>19.199999999999992</v>
@@ -8016,7 +8016,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E30" s="12">
         <v>10</v>
@@ -8048,7 +8048,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E31" s="13">
         <v>10.3</v>
@@ -8079,8 +8079,8 @@
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="D32" s="7">
-        <v>42</v>
+      <c r="D32">
+        <v>35</v>
       </c>
       <c r="E32" s="13">
         <v>10.600000000000001</v>
@@ -8111,8 +8111,8 @@
       <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33" s="7">
-        <v>48</v>
+      <c r="D33" s="15">
+        <v>40</v>
       </c>
       <c r="E33" s="13">
         <v>10.900000000000002</v>
@@ -8143,8 +8143,8 @@
       <c r="C34">
         <v>5</v>
       </c>
-      <c r="D34" s="7">
-        <v>54</v>
+      <c r="D34">
+        <v>45</v>
       </c>
       <c r="E34" s="13">
         <v>11.200000000000003</v>
@@ -8175,8 +8175,8 @@
       <c r="C35">
         <v>6</v>
       </c>
-      <c r="D35" s="7">
-        <v>60</v>
+      <c r="D35" s="15">
+        <v>50</v>
       </c>
       <c r="E35" s="13">
         <v>11.500000000000004</v>
@@ -8207,8 +8207,8 @@
       <c r="C36">
         <v>7</v>
       </c>
-      <c r="D36" s="7">
-        <v>66</v>
+      <c r="D36">
+        <v>55</v>
       </c>
       <c r="E36" s="13">
         <v>11.800000000000004</v>
@@ -8239,8 +8239,8 @@
       <c r="C37">
         <v>8</v>
       </c>
-      <c r="D37" s="7">
-        <v>72</v>
+      <c r="D37" s="15">
+        <v>60</v>
       </c>
       <c r="E37" s="13">
         <v>12.100000000000005</v>
@@ -8271,8 +8271,8 @@
       <c r="C38">
         <v>9</v>
       </c>
-      <c r="D38" s="7">
-        <v>78</v>
+      <c r="D38">
+        <v>65</v>
       </c>
       <c r="E38" s="13">
         <v>12.400000000000006</v>
@@ -8303,8 +8303,8 @@
       <c r="C39">
         <v>10</v>
       </c>
-      <c r="D39" s="7">
-        <v>84</v>
+      <c r="D39" s="15">
+        <v>70</v>
       </c>
       <c r="E39" s="13">
         <v>12.700000000000006</v>
@@ -8335,8 +8335,8 @@
       <c r="C40">
         <v>11</v>
       </c>
-      <c r="D40" s="7">
-        <v>90</v>
+      <c r="D40">
+        <v>75</v>
       </c>
       <c r="E40" s="13">
         <v>13.000000000000007</v>
@@ -8367,8 +8367,8 @@
       <c r="C41">
         <v>12</v>
       </c>
-      <c r="D41" s="7">
-        <v>96</v>
+      <c r="D41" s="15">
+        <v>80</v>
       </c>
       <c r="E41" s="13">
         <v>13.300000000000008</v>
@@ -8399,8 +8399,8 @@
       <c r="C42">
         <v>13</v>
       </c>
-      <c r="D42" s="7">
-        <v>102</v>
+      <c r="D42">
+        <v>85</v>
       </c>
       <c r="E42" s="13">
         <v>13.600000000000009</v>
@@ -8431,8 +8431,8 @@
       <c r="C43">
         <v>14</v>
       </c>
-      <c r="D43" s="7">
-        <v>108</v>
+      <c r="D43" s="15">
+        <v>90</v>
       </c>
       <c r="E43" s="13">
         <v>13.900000000000009</v>
@@ -8463,8 +8463,8 @@
       <c r="C44">
         <v>15</v>
       </c>
-      <c r="D44" s="7">
-        <v>114</v>
+      <c r="D44">
+        <v>95</v>
       </c>
       <c r="E44" s="13">
         <v>14.20000000000001</v>
@@ -8495,8 +8495,8 @@
       <c r="C45">
         <v>16</v>
       </c>
-      <c r="D45" s="7">
-        <v>120</v>
+      <c r="D45" s="15">
+        <v>100</v>
       </c>
       <c r="E45" s="13">
         <v>14.500000000000011</v>
@@ -8527,8 +8527,8 @@
       <c r="C46">
         <v>17</v>
       </c>
-      <c r="D46" s="7">
-        <v>126</v>
+      <c r="D46">
+        <v>105</v>
       </c>
       <c r="E46" s="13">
         <v>14.800000000000011</v>
@@ -8559,8 +8559,8 @@
       <c r="C47">
         <v>18</v>
       </c>
-      <c r="D47" s="7">
-        <v>132</v>
+      <c r="D47" s="15">
+        <v>110</v>
       </c>
       <c r="E47" s="13">
         <v>15.100000000000012</v>
@@ -8591,8 +8591,8 @@
       <c r="C48">
         <v>19</v>
       </c>
-      <c r="D48" s="7">
-        <v>138</v>
+      <c r="D48">
+        <v>115</v>
       </c>
       <c r="E48" s="13">
         <v>15.400000000000013</v>
@@ -8623,8 +8623,8 @@
       <c r="C49">
         <v>20</v>
       </c>
-      <c r="D49" s="7">
-        <v>144</v>
+      <c r="D49" s="15">
+        <v>120</v>
       </c>
       <c r="E49" s="13">
         <v>15.700000000000014</v>
@@ -8655,8 +8655,8 @@
       <c r="C50">
         <v>21</v>
       </c>
-      <c r="D50" s="7">
-        <v>150</v>
+      <c r="D50">
+        <v>125</v>
       </c>
       <c r="E50" s="13">
         <v>16.000000000000014</v>
@@ -8687,8 +8687,8 @@
       <c r="C51">
         <v>22</v>
       </c>
-      <c r="D51" s="7">
-        <v>156</v>
+      <c r="D51" s="15">
+        <v>130</v>
       </c>
       <c r="E51" s="13">
         <v>16.300000000000015</v>
@@ -8719,8 +8719,8 @@
       <c r="C52">
         <v>23</v>
       </c>
-      <c r="D52" s="7">
-        <v>162</v>
+      <c r="D52">
+        <v>135</v>
       </c>
       <c r="E52" s="13">
         <v>16.600000000000016</v>
@@ -8751,8 +8751,8 @@
       <c r="C53">
         <v>24</v>
       </c>
-      <c r="D53" s="7">
-        <v>168</v>
+      <c r="D53" s="15">
+        <v>140</v>
       </c>
       <c r="E53" s="13">
         <v>16.900000000000016</v>
@@ -8802,7 +8802,7 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E60" s="9">
         <v>1</v>
@@ -8834,7 +8834,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="8">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E61" s="9">
         <v>1</v>
@@ -8865,8 +8865,8 @@
       <c r="C62">
         <v>3</v>
       </c>
-      <c r="D62" s="8">
-        <v>100</v>
+      <c r="D62">
+        <v>80</v>
       </c>
       <c r="E62" s="9">
         <v>1</v>
@@ -8897,8 +8897,8 @@
       <c r="C63">
         <v>4</v>
       </c>
-      <c r="D63" s="8">
-        <v>110</v>
+      <c r="D63" s="15">
+        <v>90</v>
       </c>
       <c r="E63" s="9">
         <v>1</v>
@@ -8929,8 +8929,8 @@
       <c r="C64">
         <v>5</v>
       </c>
-      <c r="D64" s="8">
-        <v>120</v>
+      <c r="D64">
+        <v>100</v>
       </c>
       <c r="E64" s="9">
         <v>2</v>
@@ -8961,8 +8961,8 @@
       <c r="C65">
         <v>6</v>
       </c>
-      <c r="D65" s="8">
-        <v>130</v>
+      <c r="D65" s="15">
+        <v>110</v>
       </c>
       <c r="E65" s="9">
         <v>2</v>
@@ -8993,8 +8993,8 @@
       <c r="C66">
         <v>7</v>
       </c>
-      <c r="D66" s="8">
-        <v>140</v>
+      <c r="D66">
+        <v>120</v>
       </c>
       <c r="E66" s="9">
         <v>3</v>
@@ -9025,8 +9025,8 @@
       <c r="C67">
         <v>8</v>
       </c>
-      <c r="D67" s="8">
-        <v>150</v>
+      <c r="D67" s="15">
+        <v>130</v>
       </c>
       <c r="E67" s="11">
         <v>3</v>
@@ -9057,8 +9057,8 @@
       <c r="C68">
         <v>9</v>
       </c>
-      <c r="D68" s="8">
-        <v>160</v>
+      <c r="D68">
+        <v>140</v>
       </c>
       <c r="E68" s="11">
         <v>3</v>
@@ -9089,8 +9089,8 @@
       <c r="C69">
         <v>10</v>
       </c>
-      <c r="D69" s="8">
-        <v>170</v>
+      <c r="D69" s="15">
+        <v>150</v>
       </c>
       <c r="E69" s="11">
         <v>3</v>
@@ -9121,8 +9121,8 @@
       <c r="C70">
         <v>11</v>
       </c>
-      <c r="D70" s="8">
-        <v>180</v>
+      <c r="D70">
+        <v>160</v>
       </c>
       <c r="E70" s="11">
         <v>3</v>
@@ -9153,8 +9153,8 @@
       <c r="C71">
         <v>12</v>
       </c>
-      <c r="D71" s="8">
-        <v>190</v>
+      <c r="D71" s="15">
+        <v>170</v>
       </c>
       <c r="E71" s="11">
         <v>3</v>
@@ -9185,8 +9185,8 @@
       <c r="C72">
         <v>13</v>
       </c>
-      <c r="D72" s="8">
-        <v>200</v>
+      <c r="D72">
+        <v>180</v>
       </c>
       <c r="E72" s="11">
         <v>3</v>
@@ -9217,8 +9217,8 @@
       <c r="C73">
         <v>14</v>
       </c>
-      <c r="D73" s="8">
-        <v>210</v>
+      <c r="D73" s="15">
+        <v>190</v>
       </c>
       <c r="E73" s="11">
         <v>3</v>
@@ -9249,8 +9249,8 @@
       <c r="C74">
         <v>15</v>
       </c>
-      <c r="D74" s="8">
-        <v>220</v>
+      <c r="D74">
+        <v>200</v>
       </c>
       <c r="E74" s="11">
         <v>3</v>
@@ -9281,8 +9281,8 @@
       <c r="C75">
         <v>16</v>
       </c>
-      <c r="D75" s="8">
-        <v>230</v>
+      <c r="D75" s="15">
+        <v>210</v>
       </c>
       <c r="E75" s="11">
         <v>3</v>
@@ -9313,8 +9313,8 @@
       <c r="C76">
         <v>17</v>
       </c>
-      <c r="D76" s="8">
-        <v>240</v>
+      <c r="D76">
+        <v>220</v>
       </c>
       <c r="E76" s="11">
         <v>4</v>
@@ -9345,8 +9345,8 @@
       <c r="C77">
         <v>18</v>
       </c>
-      <c r="D77" s="8">
-        <v>250</v>
+      <c r="D77" s="15">
+        <v>230</v>
       </c>
       <c r="E77" s="11">
         <v>4</v>
@@ -9377,8 +9377,8 @@
       <c r="C78">
         <v>19</v>
       </c>
-      <c r="D78" s="8">
-        <v>260</v>
+      <c r="D78">
+        <v>240</v>
       </c>
       <c r="E78" s="11">
         <v>4</v>
@@ -9409,8 +9409,8 @@
       <c r="C79">
         <v>20</v>
       </c>
-      <c r="D79" s="8">
-        <v>270</v>
+      <c r="D79" s="15">
+        <v>250</v>
       </c>
       <c r="E79" s="11">
         <v>4</v>
@@ -9441,8 +9441,8 @@
       <c r="C80">
         <v>21</v>
       </c>
-      <c r="D80" s="8">
-        <v>280</v>
+      <c r="D80">
+        <v>260</v>
       </c>
       <c r="E80" s="11">
         <v>4</v>
@@ -9473,8 +9473,8 @@
       <c r="C81">
         <v>22</v>
       </c>
-      <c r="D81" s="8">
-        <v>290</v>
+      <c r="D81" s="15">
+        <v>270</v>
       </c>
       <c r="E81" s="11">
         <v>4</v>
@@ -9505,8 +9505,8 @@
       <c r="C82">
         <v>23</v>
       </c>
-      <c r="D82" s="8">
-        <v>300</v>
+      <c r="D82">
+        <v>280</v>
       </c>
       <c r="E82" s="11">
         <v>4</v>
@@ -9537,8 +9537,8 @@
       <c r="C83">
         <v>24</v>
       </c>
-      <c r="D83" s="8">
-        <v>310</v>
+      <c r="D83" s="15">
+        <v>290</v>
       </c>
       <c r="E83" s="11">
         <v>4</v>
@@ -9651,8 +9651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assets/UI/gamedata.xlsx
+++ b/Assets/UI/gamedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="7"/>
+    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -2717,8 +2717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9651,8 +9651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9776,7 +9776,7 @@
         <v>124</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -9811,7 +9811,7 @@
         <v>126</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -9846,7 +9846,7 @@
         <v>128</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>3800</v>
       </c>
       <c r="C6">
         <v>30</v>
